--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3367705.562747825</v>
+        <v>3365207.827397376</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8192199.217767054</v>
+        <v>8192199.217767053</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>18.47177570843673</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>289.3813920274932</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.3310866359323</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36059768091647</v>
+        <v>1.360597680916754</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459284</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7466796050974</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +756,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370735</v>
+        <v>44.34001494201959</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.11551727184605</v>
+        <v>21.62032152353365</v>
       </c>
       <c r="S3" t="n">
-        <v>148.187383735635</v>
+        <v>148.1873837356351</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>79.02729820447375</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9304924685165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097207</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775194</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.6100444894002</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>136.0855884655385</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.9169039459368</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>14.59146158786749</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>337.0676279763225</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>58.58056017516142</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>34.43242009471603</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>104.6048710001118</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>184.7977657216988</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>139.3630269640595</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>132.4168693425909</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576145</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.33703994142872</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710053</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909446</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1844,10 +1844,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174115</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050017</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337072</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.21070476472312</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>19.91555826189058</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648966</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.945761879058</v>
       </c>
       <c r="U40" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.799772605717012</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,16 +4135,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>154.8443340724378</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1173.10092123519</v>
+        <v>915.7397129368447</v>
       </c>
       <c r="C2" t="n">
-        <v>1173.10092123519</v>
+        <v>915.7397129368447</v>
       </c>
       <c r="D2" t="n">
-        <v>1173.10092123519</v>
+        <v>915.7397129368447</v>
       </c>
       <c r="E2" t="n">
-        <v>880.7964848437823</v>
+        <v>915.7397129368447</v>
       </c>
       <c r="F2" t="n">
-        <v>469.8105800541747</v>
+        <v>908.7942121876413</v>
       </c>
       <c r="G2" t="n">
-        <v>52.70091953961285</v>
+        <v>491.6845516730794</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961285</v>
+        <v>173.2373706870192</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088521</v>
+        <v>239.5208398512378</v>
       </c>
       <c r="K2" t="n">
-        <v>151.950669111822</v>
+        <v>640.2602765776271</v>
       </c>
       <c r="L2" t="n">
-        <v>701.3800037181045</v>
+        <v>1048.963789615316</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.332547639727</v>
+        <v>1231.897935379033</v>
       </c>
       <c r="N2" t="n">
-        <v>1951.178517094874</v>
+        <v>1422.405955251802</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291969</v>
+        <v>1965.954194448896</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.377499016428</v>
+        <v>2392.185658263123</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888808</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="S2" t="n">
-        <v>2633.671635888808</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2633.671635888808</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="U2" t="n">
-        <v>2633.671635888808</v>
+        <v>2008.368946827792</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.608748545237</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="W2" t="n">
-        <v>1949.840093275123</v>
+        <v>1324.537404214108</v>
       </c>
       <c r="X2" t="n">
-        <v>1949.840093275123</v>
+        <v>1324.537404214108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1559.700761299311</v>
+        <v>934.398072238296</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935055</v>
+        <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123786</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511273</v>
+        <v>641.7429649564932</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456718</v>
+        <v>482.5055099510377</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725568</v>
+        <v>335.9709519779227</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679829</v>
+        <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507483</v>
+        <v>97.48881342044072</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>170.2762045496333</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524141</v>
+        <v>497.8519368624343</v>
       </c>
       <c r="L3" t="n">
-        <v>882.1470455900082</v>
+        <v>632.5903887496032</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.737331912397</v>
+        <v>1270.228688184491</v>
       </c>
       <c r="N3" t="n">
-        <v>1645.290452790179</v>
+        <v>1922.4025674872</v>
       </c>
       <c r="O3" t="n">
         <v>2191.996692751183</v>
@@ -4431,28 +4431,28 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.727272665647</v>
+        <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2465.043046670055</v>
+        <v>2463.523042375421</v>
       </c>
       <c r="T3" t="n">
-        <v>2268.006566775194</v>
+        <v>2266.48656248056</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.867009144004</v>
+        <v>2038.34700484937</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.714900912262</v>
+        <v>1803.194896617628</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.47754418406</v>
+        <v>1548.957539889426</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978527</v>
+        <v>1341.106039683893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.865745213574</v>
+        <v>1133.34574091894</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2635.045976980643</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C4" t="n">
-        <v>2555.22042323875</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D4" t="n">
-        <v>2405.103783826414</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
-        <v>2257.190690244021</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>2110.300742746111</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>1941.684083687003</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>1787.342184720476</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>1662.535374710657</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
-        <v>1643.966933298786</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>1743.897338472326</v>
+        <v>152.6313247131523</v>
       </c>
       <c r="L4" t="n">
-        <v>1927.300286863087</v>
+        <v>336.0342731039128</v>
       </c>
       <c r="M4" t="n">
-        <v>2131.062104044785</v>
+        <v>539.7960902856109</v>
       </c>
       <c r="N4" t="n">
-        <v>2335.413537065811</v>
+        <v>744.1475233066362</v>
       </c>
       <c r="O4" t="n">
-        <v>2508.148865184117</v>
+        <v>916.8828514249417</v>
       </c>
       <c r="P4" t="n">
-        <v>2632.433097110493</v>
+        <v>1041.167083351318</v>
       </c>
       <c r="Q4" t="n">
-        <v>2635.045976980643</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="R4" t="n">
-        <v>2635.045976980643</v>
+        <v>912.8607263634869</v>
       </c>
       <c r="S4" t="n">
-        <v>2635.045976980643</v>
+        <v>705.2494094117187</v>
       </c>
       <c r="T4" t="n">
-        <v>2635.045976980643</v>
+        <v>479.5782799458042</v>
       </c>
       <c r="U4" t="n">
-        <v>2635.045976980643</v>
+        <v>479.5782799458042</v>
       </c>
       <c r="V4" t="n">
-        <v>2635.045976980643</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W4" t="n">
-        <v>2635.045976980643</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="X4" t="n">
-        <v>2635.045976980643</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y4" t="n">
-        <v>2635.045976980643</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1907.973785425286</v>
+        <v>1503.933381384882</v>
       </c>
       <c r="C5" t="n">
-        <v>1539.011268484874</v>
+        <v>1134.97086444447</v>
       </c>
       <c r="D5" t="n">
-        <v>1180.745569878124</v>
+        <v>776.7051658377195</v>
       </c>
       <c r="E5" t="n">
-        <v>794.9573172798794</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="F5" t="n">
         <v>383.9714124902719</v>
@@ -4568,22 +4568,22 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>709.3115823537878</v>
+        <v>976.3788636642336</v>
       </c>
       <c r="M5" t="n">
-        <v>1341.029393337099</v>
+        <v>1163.078276489641</v>
       </c>
       <c r="N5" t="n">
-        <v>1968.337061396946</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4595,22 +4595,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2620.307126891887</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.045976980643</v>
+        <v>2620.307126891887</v>
       </c>
       <c r="V5" t="n">
-        <v>2635.045976980643</v>
+        <v>2620.307126891887</v>
       </c>
       <c r="W5" t="n">
-        <v>2635.045976980643</v>
+        <v>2267.538471621773</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.045976980643</v>
+        <v>1894.072713360693</v>
       </c>
       <c r="Y5" t="n">
-        <v>2294.573625489408</v>
+        <v>1503.933381384882</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>120.3087392029699</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>624.6702790690885</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
-        <v>1265.215628536193</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N6" t="n">
-        <v>1917.389507838902</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O6" t="n">
-        <v>2466.825516591625</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
         <v>2612.309035778665</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>387.4247838092755</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C7" t="n">
-        <v>218.4886008813686</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>218.4886008813686</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>993.4633179937441</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>993.4633179937441</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>993.4633179937441</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.635600998958</v>
+        <v>704.3111415714239</v>
       </c>
       <c r="V7" t="n">
-        <v>1052.635600998958</v>
+        <v>449.6266533655371</v>
       </c>
       <c r="W7" t="n">
-        <v>1017.855378681063</v>
+        <v>449.6266533655371</v>
       </c>
       <c r="X7" t="n">
-        <v>789.8658277830453</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="Y7" t="n">
-        <v>569.0732486395152</v>
+        <v>221.6371024675198</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>547.3178008110954</v>
+        <v>1776.415080017693</v>
       </c>
       <c r="C8" t="n">
-        <v>178.3552838706836</v>
+        <v>1407.452563077281</v>
       </c>
       <c r="D8" t="n">
-        <v>72.69379801198481</v>
+        <v>1049.186864470531</v>
       </c>
       <c r="E8" t="n">
-        <v>72.69379801198481</v>
+        <v>663.3986118722867</v>
       </c>
       <c r="F8" t="n">
-        <v>65.74829726278134</v>
+        <v>656.4531111230832</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961285</v>
+        <v>239.3653293595107</v>
       </c>
       <c r="H8" t="n">
         <v>52.70091953961285</v>
@@ -4808,16 +4808,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>1032.36013938198</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.059552207387</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N8" t="n">
-        <v>1413.39376509937</v>
+        <v>2011.628270704848</v>
       </c>
       <c r="O8" t="n">
-        <v>1960.554969866447</v>
+        <v>2181.797296021808</v>
       </c>
       <c r="P8" t="n">
         <v>2389.870016205742</v>
@@ -4832,22 +4832,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.354273725794</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V8" t="n">
-        <v>2050.291386382223</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.522731112109</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="X8" t="n">
-        <v>1324.056972851029</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="Y8" t="n">
-        <v>933.9176408752171</v>
+        <v>1776.415080017693</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K9" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.150115568437</v>
+        <v>257.5383372186639</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.27200203395</v>
+        <v>778.7548643839062</v>
       </c>
       <c r="N9" t="n">
         <v>1430.928743686615</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>516.4401435478233</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="C10" t="n">
-        <v>347.5039606199163</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5039606199163</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
         <v>52.70091953961285</v>
@@ -4984,28 +4984,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.635600998958</v>
+        <v>633.00546329604</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.635600998958</v>
+        <v>633.00546329604</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.635600998958</v>
+        <v>343.5882932590794</v>
       </c>
       <c r="X10" t="n">
-        <v>918.8811875215931</v>
+        <v>343.5882932590794</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.088608378063</v>
+        <v>343.5882932590794</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>840.841793202178</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756784</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996071</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.50206557031</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424032</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424032</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424032</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5267,61 +5267,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5498,64 +5498,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637304</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,10 +5765,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,13 +5832,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280578</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6221,28 +6221,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>175.8744207939063</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>175.8744207939063</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096652</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,34 +6950,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.355259300791</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919729</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1735.314832085243</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1480.630343879356</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>742.4310438008474</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075823</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7637,25 +7637,25 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7664,16 +7664,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908938</v>
@@ -7798,58 +7798,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.65412723258</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.578900576778</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>275.5139200367198</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>435.6948985680576</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.3281211888728</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>394.828656789383</v>
+        <v>461.1122511579965</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>113.951092310043</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8216,25 +8216,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>363.2807325958977</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>354.365095955167</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,22 +8295,22 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>378.0407240669647</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>37.16554713105234</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8456,19 +8456,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>250.7308605730627</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>98.3216110448561</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263505</v>
+        <v>345.1708998087249</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.868909745143369e-14</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-12</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-1.723991663275674e-12</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-6.88924603777281e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-1.723991663275674e-12</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>-2.065052176440522e-12</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>104.0840080815025</v>
       </c>
       <c r="G13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856555</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>63.3683537222866</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823005</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4047682534892</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823011</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.31512318719817</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823031</v>
       </c>
       <c r="U40" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172142</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>62.56111625485042</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>757935.3399357421</v>
+        <v>757935.3399357422</v>
       </c>
     </row>
     <row r="3">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866284</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866284</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866284</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866284</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866284</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>692174.0493866287</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866284</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778553</v>
@@ -26323,37 +26323,37 @@
         <v>726431.9397210055</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="O2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26363,25 +26363,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918878</v>
+        <v>787455.5478918867</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.24700849981</v>
+        <v>4906.247008500885</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765845</v>
+        <v>775688.3472765841</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>6.680050717022823e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157138</v>
+        <v>128077.5968157137</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909052</v>
+        <v>190891.9800909054</v>
       </c>
       <c r="C4" t="n">
-        <v>189891.8124216189</v>
+        <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707365</v>
+        <v>6897.424496707452</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707386</v>
+        <v>6897.424496707474</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707403</v>
+        <v>6897.424496707442</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707345</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707319</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707321</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707343</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707425</v>
+        <v>6897.42449670733</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707369</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707265</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707369</v>
+        <v>6897.424496707265</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707354</v>
+        <v>6897.424496707313</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051735</v>
+        <v>86500.62127051732</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26503,10 +26503,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325910.556375456</v>
+        <v>-325910.556375455</v>
       </c>
       <c r="C6" t="n">
-        <v>457521.4556102608</v>
+        <v>457521.45561026</v>
       </c>
       <c r="D6" t="n">
-        <v>462427.7026187609</v>
+        <v>462427.702618761</v>
       </c>
       <c r="E6" t="n">
-        <v>-157276.3618761934</v>
+        <v>-157311.0998016289</v>
       </c>
       <c r="F6" t="n">
-        <v>618411.9854003908</v>
+        <v>618377.2474749549</v>
       </c>
       <c r="G6" t="n">
-        <v>618411.9854003909</v>
+        <v>618377.2474749554</v>
       </c>
       <c r="H6" t="n">
-        <v>618411.9854003906</v>
+        <v>618377.2474749547</v>
       </c>
       <c r="I6" t="n">
-        <v>618411.9854003907</v>
+        <v>618377.2474749554</v>
       </c>
       <c r="J6" t="n">
-        <v>446050.9930001101</v>
+        <v>446016.2550746747</v>
       </c>
       <c r="K6" t="n">
-        <v>618411.9854003907</v>
+        <v>618377.2474749554</v>
       </c>
       <c r="L6" t="n">
-        <v>618411.9854003909</v>
+        <v>618377.2474749554</v>
       </c>
       <c r="M6" t="n">
-        <v>490334.3885846771</v>
+        <v>490299.6506592414</v>
       </c>
       <c r="N6" t="n">
-        <v>618411.9854003909</v>
+        <v>618377.2474749549</v>
       </c>
       <c r="O6" t="n">
-        <v>618411.9854003909</v>
+        <v>618377.2474749549</v>
       </c>
       <c r="P6" t="n">
-        <v>618411.9854003912</v>
+        <v>618377.2474749554</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.304551853999377e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.304551853999377e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225489</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26744,7 +26744,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.304551853999377e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225489</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515022</v>
+        <v>5.387915915516203</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036082</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544873</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.304551853999377e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544873</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>364.2620659550439</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>92.54897804476855</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359321</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459283</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.156519019379</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.504804251687851</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.504804251687439</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>88.21952289415408</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.38275699775208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4144181712553</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>116.0520548582896</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,7 +27667,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>198.0604015270985</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>49.17031067973113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>70.59262149262989</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
@@ -27828,19 +27828,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>252.090578241875</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>250.0781706205711</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>130.2431183535168</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27904,19 +27904,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>40.46895321787775</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,19 +28065,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>93.29278604644625</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,19 +28090,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.304551853999377e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.304551853999377e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.304551853999377e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.304551853999377e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.304551853999377e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,19 +28141,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.532487637710925e-12</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.304551853999377e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.304551853999377e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28324,13 +28324,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.304551853999377e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.304551853999377e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.304551853999377e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28564,19 +28564,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,19 +28612,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.478997154632013e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718793</v>
+        <v>2.364173605718788</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956759</v>
+        <v>24.21209293956754</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447383</v>
+        <v>91.14480293447366</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683755</v>
+        <v>200.6562795683751</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984521</v>
+        <v>300.7317482984515</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844687</v>
+        <v>373.0843262844679</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451702</v>
+        <v>415.1281986451694</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024187</v>
+        <v>421.8454069024179</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105525</v>
+        <v>398.3366556105517</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193698</v>
+        <v>339.9711197193691</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645654</v>
+        <v>255.3041524645649</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602332</v>
+        <v>148.5085202602329</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031704</v>
+        <v>53.87360604031693</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903402</v>
+        <v>10.349169959034</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575034</v>
+        <v>0.189133888457503</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682466</v>
+        <v>1.264944396682464</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2166998311175</v>
+        <v>12.21669983111748</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770773</v>
+        <v>43.55181365770764</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777939</v>
+        <v>119.5095054777937</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555191</v>
+        <v>204.2607800555187</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305504</v>
+        <v>274.6538261305499</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102897</v>
+        <v>320.5080605102891</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704981</v>
+        <v>328.9909551704974</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808498</v>
+        <v>300.9624503808491</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489527</v>
+        <v>241.5488997489522</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361689</v>
+        <v>161.4690426361686</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910964</v>
+        <v>78.53751262910949</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820281</v>
+        <v>23.49578736820277</v>
       </c>
       <c r="T3" t="n">
-        <v>5.09861359890871</v>
+        <v>5.098613598908701</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753071</v>
+        <v>0.08322002609753054</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942303</v>
+        <v>1.060486889942301</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577939</v>
+        <v>9.428692530577921</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753764</v>
+        <v>31.89173301753758</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892083</v>
+        <v>74.97642311892069</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314785</v>
+        <v>123.2092950314782</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646948</v>
+        <v>157.6654781646945</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934103</v>
+        <v>166.23614039341</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308982</v>
+        <v>162.2834165308979</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983903</v>
+        <v>149.8950014983901</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435672</v>
+        <v>128.261068943567</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780506</v>
+        <v>88.80131584780489</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776937</v>
+        <v>47.68334688776928</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472177</v>
+        <v>18.48139425472174</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026203</v>
+        <v>4.531171257026195</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139842</v>
+        <v>0.05784473945139831</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338208</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>436.4492970000084</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32081,31 +32081,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008319</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>194.5189324111259</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>526.2989357562001</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742437</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471731</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>324.5433647340724</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>396.9700886943659</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526531</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>209.724250652459</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860359</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>268.6704608606955</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422511</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>285.8867128925975</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168925</v>
+        <v>188.7069902137626</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347154</v>
+        <v>404.7873098246357</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649318</v>
+        <v>412.8318313512005</v>
       </c>
       <c r="M2" t="n">
-        <v>634.29549891073</v>
+        <v>184.7819654178967</v>
       </c>
       <c r="N2" t="n">
-        <v>628.1272418738854</v>
+        <v>192.432343305827</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516111</v>
+        <v>549.0386254516103</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641002</v>
+        <v>430.5368321355822</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011593</v>
+        <v>245.3134532500201</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>118.7629141515358</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937387</v>
+        <v>330.8845780937384</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541354</v>
+        <v>136.0994463506757</v>
       </c>
       <c r="M3" t="n">
-        <v>178.3740265882714</v>
+        <v>644.0790903382707</v>
       </c>
       <c r="N3" t="n">
-        <v>592.4778998765478</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131348</v>
+        <v>272.3172982464476</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745597</v>
+        <v>426.0372609745592</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014735</v>
+        <v>21.48726855014704</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055956</v>
+        <v>100.9398032055954</v>
       </c>
       <c r="L4" t="n">
-        <v>185.255503425011</v>
+        <v>185.2555034250107</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552509</v>
+        <v>205.8200173552506</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101268</v>
+        <v>206.4155889101265</v>
       </c>
       <c r="O4" t="n">
-        <v>174.48012941243</v>
+        <v>174.4801294124297</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084607</v>
+        <v>125.5396282084605</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110672</v>
+        <v>2.639272596110501</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>504.0167485971636</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>526.2530003157322</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>578.7040994736967</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>146.9530496838794</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
         <v>22.96660727472423</v>
@@ -35176,19 +35176,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>391.4668765743286</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>210.1744648322566</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348621</v>
+        <v>526.4813405709519</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394658</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>302.4748895856782</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174986</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>55.9645526312517</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>394.9572236728667</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>91.80490927281407</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>182.4093308120541</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723476</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820866</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>82.88662398579233</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>212.9340539717057</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>134.6960534463653</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>71.39556506237696</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396416</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402482</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>151.9123054782673</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
